--- a/Scotiabank/Data_Manager_BI.xlsx
+++ b/Scotiabank/Data_Manager_BI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edima/Documents/Coding/code-interview-questions/Scotiabank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B92A7A4-9741-5347-85E9-F47E1B10C906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C356D6E-5FC7-2345-B4A1-1878EDE4E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,8 +25,30 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATA_QUALITY!$A$1:$I$498</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">DATA_QUALITY!$X$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">DATA_QUALITY!$X$2:$X$499</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">DATA_QUALITY!$X$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">DATA_QUALITY!$X$2:$X$499</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Analysis!$I$4:$I$15</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Analysis!$H$4:$H$15</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Analysis!$I$3</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Analysis!$I$4:$I$15</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Analysis!$H$4:$H$15</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Analysis!$I$3</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Analysis!$I$4:$I$15</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Analysis!$H$4:$H$15</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Analysis!$I$3</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Analysis!$I$4:$I$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Analysis!$H$4:$H$15</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Analysis!$H$4:$H$15</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Analysis!$I$3</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Analysis!$I$4:$I$15</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Analysis!$H$4:$H$15</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Analysis!$I$3</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Analysis!$I$4:$I$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Analysis!$I$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Analysis!$I$4:$I$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Analysis!$E$4:$E$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Analysis!$F$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Analysis!$F$4:$F$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Analysis!$H$4:$H$15</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Analysis!$I$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -47,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4659" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="60">
   <si>
     <t>Operating Line</t>
   </si>
@@ -225,13 +247,18 @@
   <si>
     <t>Clients</t>
   </si>
+  <si>
+    <t>Product difference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -289,11 +316,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -331,10 +360,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -347,6 +380,285 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$E$4:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Operating Line</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Revolving Term</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$F$4:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>41200682.358318016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35438832.890019014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B0D-744D-AC37-1F4001C93DBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,6 +704,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -939,6 +1291,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1017,6 +1888,47 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F57CF78-4044-1F48-B6A4-3CFBA00F7DF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -55346,7 +56258,7 @@
   <dimension ref="A3:S485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -55355,6 +56267,11 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -55375,7 +56292,7 @@
         <v>42</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>42</v>
@@ -55414,25 +56331,25 @@
       <c r="H4" t="s">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="18">
         <v>708789968</v>
       </c>
       <c r="L4" t="s">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="18">
         <v>744619470.76466429</v>
       </c>
       <c r="O4" t="s">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="18">
         <v>35829502.764664017</v>
       </c>
       <c r="R4" t="s">
         <v>31</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="18">
         <v>19267491.059868012</v>
       </c>
     </row>
@@ -55453,25 +56370,25 @@
       <c r="H5" t="s">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="18">
         <v>223837843</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="18">
         <v>235599963.12204197</v>
       </c>
       <c r="O5" t="s">
         <v>7</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="18">
         <v>12485441.915498994</v>
       </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="18">
         <v>14474270.243368002</v>
       </c>
     </row>
@@ -55483,28 +56400,32 @@
         <v>33703858</v>
       </c>
       <c r="C6" s="16"/>
+      <c r="F6" s="17">
+        <f xml:space="preserve"> (F4-F5)/F4</f>
+        <v>0.13984839906749119</v>
+      </c>
       <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="18">
         <v>222822591</v>
       </c>
       <c r="L6" t="s">
         <v>7</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="18">
         <v>235308032.91549897</v>
       </c>
       <c r="O6" t="s">
         <v>3</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="18">
         <v>11762120.122041997</v>
       </c>
       <c r="R6" t="s">
         <v>26</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="18">
         <v>12795864.132281002</v>
       </c>
     </row>
@@ -55516,28 +56437,35 @@
         <v>32732412</v>
       </c>
       <c r="C7" s="16"/>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7">
+        <f>F4-F5</f>
+        <v>5761849.4682990015</v>
+      </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="18">
         <v>158373433</v>
       </c>
       <c r="L7" t="s">
         <v>5</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="18">
         <v>166750937.28308204</v>
       </c>
       <c r="O7" t="s">
         <v>5</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="18">
         <v>8377504.283081999</v>
       </c>
       <c r="R7" t="s">
         <v>30</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="18">
         <v>11443731.466975991</v>
       </c>
     </row>
@@ -55549,28 +56477,29 @@
         <v>29920403</v>
       </c>
       <c r="C8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="H8" t="s">
         <v>6</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="18">
         <v>91553349</v>
       </c>
       <c r="L8" t="s">
         <v>6</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="18">
         <v>95588076.98906</v>
       </c>
       <c r="O8" t="s">
         <v>6</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="18">
         <v>4034727.9890600001</v>
       </c>
       <c r="R8" t="s">
         <v>27</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="18">
         <v>10990411.065083997</v>
       </c>
     </row>
@@ -55585,25 +56514,25 @@
       <c r="H9" t="s">
         <v>4</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="18">
         <v>51721153</v>
       </c>
       <c r="L9" t="s">
         <v>4</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="18">
         <v>54093925.685388006</v>
       </c>
       <c r="O9" t="s">
         <v>4</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="18">
         <v>2372772.6853880002</v>
       </c>
       <c r="R9" t="s">
         <v>28</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="18">
         <v>7667747.2807600023</v>
       </c>
     </row>
@@ -55618,19 +56547,19 @@
       <c r="H10" t="s">
         <v>8</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="18">
         <v>22103953</v>
       </c>
       <c r="L10" t="s">
         <v>8</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="18">
         <v>23249797.494892001</v>
       </c>
       <c r="O10" t="s">
         <v>8</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="18">
         <v>1145844.4948920005</v>
       </c>
     </row>
@@ -55645,19 +56574,19 @@
       <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="18">
         <v>4759074</v>
       </c>
       <c r="L11" t="s">
         <v>40</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="18">
         <v>4975647.6266379999</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="18">
         <v>216573.62663800013</v>
       </c>
     </row>
@@ -55671,19 +56600,19 @@
       <c r="H12" t="s">
         <v>11</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="18">
         <v>4520766</v>
       </c>
       <c r="L12" t="s">
         <v>11</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="18">
         <v>4730384.8778879996</v>
       </c>
       <c r="O12" t="s">
         <v>11</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="18">
         <v>209618.87788800022</v>
       </c>
     </row>
@@ -55697,19 +56626,19 @@
       <c r="H13" t="s">
         <v>10</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="18">
         <v>3619830</v>
       </c>
       <c r="L13" t="s">
         <v>10</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="18">
         <v>3787366.12744</v>
       </c>
       <c r="O13" t="s">
         <v>10</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="18">
         <v>167536.12744000001</v>
       </c>
     </row>
@@ -55723,19 +56652,19 @@
       <c r="H14" t="s">
         <v>12</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="18">
         <v>578200</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="18">
         <v>612237.47759999998</v>
       </c>
       <c r="O14" t="s">
         <v>12</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="18">
         <v>34037.477599999984</v>
       </c>
     </row>
@@ -55749,19 +56678,19 @@
       <c r="H15" t="s">
         <v>13</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="18">
         <v>68033</v>
       </c>
       <c r="L15" t="s">
         <v>13</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="18">
         <v>71867.884143999996</v>
       </c>
       <c r="O15" t="s">
         <v>13</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="18">
         <v>3834.884143999996</v>
       </c>
     </row>
@@ -55819,16 +56748,17 @@
       <c r="B21" s="16">
         <v>17907801</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -55842,13 +56772,13 @@
       <c r="E22">
         <v>9762889860</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="18">
         <v>6403411.1344880015</v>
       </c>
       <c r="H22">
         <v>9762889860</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="18">
         <v>124657591</v>
       </c>
     </row>
@@ -55862,13 +56792,13 @@
       <c r="E23">
         <v>1443223015</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="18">
         <v>2272548.7490160018</v>
       </c>
       <c r="H23">
         <v>1443223015</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="18">
         <v>35581962</v>
       </c>
     </row>
@@ -55882,13 +56812,13 @@
       <c r="E24">
         <v>9762889045</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="18">
         <v>1820041.4435399994</v>
       </c>
       <c r="H24">
         <v>9762889178</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="18">
         <v>33703858</v>
       </c>
     </row>
@@ -55902,13 +56832,13 @@
       <c r="E25">
         <v>335556526</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="18">
         <v>1681398.5396160036</v>
       </c>
       <c r="H25">
         <v>335556526</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="18">
         <v>32732412</v>
       </c>
     </row>
@@ -55922,13 +56852,13 @@
       <c r="E26">
         <v>9762889178</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="18">
         <v>1558909.4538439997</v>
       </c>
       <c r="H26">
         <v>9762889711</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="18">
         <v>29920403</v>
       </c>
     </row>
@@ -55942,13 +56872,13 @@
       <c r="E27">
         <v>9762889711</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="18">
         <v>1422176.5953960009</v>
       </c>
       <c r="H27">
         <v>9762889045</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="18">
         <v>28884045</v>
       </c>
     </row>
@@ -55962,13 +56892,13 @@
       <c r="E28">
         <v>1443222439</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="18">
         <v>1414284.6827760004</v>
       </c>
       <c r="H28">
         <v>1443222439</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="18">
         <v>27532407</v>
       </c>
     </row>
@@ -55982,13 +56912,13 @@
       <c r="E29">
         <v>5299556055</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="18">
         <v>1371885.2293119989</v>
       </c>
       <c r="H29">
         <v>10663111913</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="18">
         <v>21240300</v>
       </c>
     </row>
@@ -56002,13 +56932,13 @@
       <c r="E30">
         <v>9762888890</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="18">
         <v>1215397.384176001</v>
       </c>
       <c r="H30">
         <v>7541778566</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="18">
         <v>21107410</v>
       </c>
     </row>
@@ -56022,13 +56952,13 @@
       <c r="E31">
         <v>9762889652</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="18">
         <v>1201324.6873680018</v>
       </c>
       <c r="H31">
         <v>5299556055</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="18">
         <v>20670884</v>
       </c>
     </row>
@@ -59664,6 +60594,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Scotiabank/Data_Manager_BI.xlsx
+++ b/Scotiabank/Data_Manager_BI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edima/Documents/Coding/code-interview-questions/Scotiabank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5104D31-BBB4-D64A-B6E9-A06A89DE41D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20DF344-F70B-0146-8B55-B0A61B2205A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,37 +23,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATA_BI!$A$1:$J$498</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA_BI_backup!$A$1:$G$498</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DATA_QUALITY!$A$1:$I$498</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">DATA_QUALITY!$AD$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">DATA_QUALITY!$AD$2:$AD$499</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Analysis!$F$8</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Analysis!$F$9:$F$14</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Analysis!$E$32:$E$43</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Analysis!$F$31</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Analysis!$F$32:$F$43</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Analysis!$E$9:$E$14</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Analysis!$F$8</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Analysis!$F$9:$F$14</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Analysis!$E$9:$E$14</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Analysis!$F$8</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">DATA_QUALITY!$E$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Analysis!$F$9:$F$14</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Analysis!$E$9:$E$14</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Analysis!$F$8</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Analysis!$F$9:$F$14</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Analysis!$E$14:$E$19</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Analysis!$F$13</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Analysis!$F$14:$F$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">DATA_QUALITY!$E$2:$E$498</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">DATA_QUALITY!$R$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">DATA_QUALITY!$R$2:$R$499</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Analysis!$E$32:$E$43</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Analysis!$F$31</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Analysis!$F$32:$F$43</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Analysis!$E$9:$E$14</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">DATA_QUALITY!$E$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">DATA_QUALITY!$E$2:$E$498</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">DATA_QUALITY!$R$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">DATA_QUALITY!$R$2:$R$499</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Analysis!$E$14:$E$19</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Analysis!$F$13</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Analysis!$F$14:$F$19</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Analysis!$E$14:$E$19</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Analysis!$F$13</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Analysis!$F$14:$F$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -262,7 +245,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -339,7 +322,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -371,13 +354,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -392,9 +372,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -449,7 +435,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Product Profit</a:t>
             </a:r>
           </a:p>
@@ -517,6 +503,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D95E-D04D-BF7D-6263D10B1218}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -532,6 +523,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D95E-D04D-BF7D-6263D10B1218}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -811,7 +807,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -834,7 +830,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2324,7 +2320,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2362,7 +2358,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{06E80C09-D554-2B41-922B-90E251B11323}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v> Interest Rate we charge clients (%) </cx:v>
             </cx:txData>
           </cx:tx>
@@ -2393,7 +2389,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2431,7 +2427,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{BB734AC8-1635-9F4F-B11F-DC662E388927}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Balance ($)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2460,10 +2456,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2501,11 +2497,12 @@
         <cx:series layoutId="treemap" uniqueId="{D8D4DC4B-76A3-D946-B297-BD934674BBDE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v> Profit </cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataPt idx="0"/>
+          <cx:dataPt idx="5"/>
           <cx:dataLabels>
             <cx:txPr>
               <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
@@ -2654,12 +2651,9 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -6967,8 +6961,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="30587950" y="749300"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="21456650" y="749300"/>
+              <a:ext cx="4572000" cy="2565400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7045,7 +7039,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="30626050" y="3708400"/>
+              <a:off x="21494750" y="3314700"/>
               <a:ext cx="6292850" cy="3429000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7125,8 +7119,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -7200,7 +7194,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12446000" y="2514600"/>
+              <a:off x="13716000" y="2514600"/>
               <a:ext cx="4616450" cy="3200400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15321,7 +15315,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FA9643F-2181-F34B-AF2B-EE4558534170}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FA9643F-2181-F34B-AF2B-EE4558534170}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B485" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -30552,7 +30546,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -48106,7 +48100,7 @@
     <col min="11" max="11" width="20.83203125" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="45.83203125" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" style="20"/>
+    <col min="18" max="18" width="13.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -48138,13 +48132,13 @@
         <v>33</v>
       </c>
       <c r="J1" s="6"/>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="17"/>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -48179,7 +48173,7 @@
       <c r="M2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="19">
         <v>1.45</v>
       </c>
     </row>
@@ -48205,7 +48199,7 @@
       <c r="G3" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="20" t="s">
         <v>16</v>
       </c>
       <c r="L3" t="s">
@@ -48214,7 +48208,7 @@
       <c r="M3" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3" s="19">
         <v>1.55</v>
       </c>
     </row>
@@ -48240,7 +48234,7 @@
       <c r="G4" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>52</v>
       </c>
       <c r="L4" t="s">
@@ -48249,7 +48243,7 @@
       <c r="M4" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="19">
         <v>1.637</v>
       </c>
     </row>
@@ -48275,7 +48269,7 @@
       <c r="G5" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="L5" t="s">
@@ -48284,7 +48278,7 @@
       <c r="M5" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="19">
         <v>1.8360000000000001</v>
       </c>
     </row>
@@ -48310,7 +48304,7 @@
       <c r="G6" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="21" t="s">
         <v>19</v>
       </c>
       <c r="L6" t="s">
@@ -48319,7 +48313,7 @@
       <c r="M6" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="19">
         <v>1.8540000000000001</v>
       </c>
     </row>
@@ -48345,7 +48339,7 @@
       <c r="G7" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="22" t="s">
         <v>25</v>
       </c>
       <c r="L7" t="s">
@@ -48354,7 +48348,7 @@
       <c r="M7" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="19">
         <v>1.8680000000000001</v>
       </c>
     </row>
@@ -48389,7 +48383,7 @@
       <c r="M8" t="s">
         <v>60</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48424,7 +48418,7 @@
       <c r="M9" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48450,7 +48444,7 @@
       <c r="G10" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48476,7 +48470,7 @@
       <c r="G11" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48502,7 +48496,7 @@
       <c r="G12" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48528,7 +48522,7 @@
       <c r="G13" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48554,7 +48548,7 @@
       <c r="G14" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48580,7 +48574,7 @@
       <c r="G15" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48606,7 +48600,7 @@
       <c r="G16" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48632,7 +48626,7 @@
       <c r="G17" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48658,7 +48652,7 @@
       <c r="G18" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48684,7 +48678,7 @@
       <c r="G19" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48710,7 +48704,7 @@
       <c r="G20" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48736,7 +48730,7 @@
       <c r="G21" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48762,7 +48756,7 @@
       <c r="G22" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48788,7 +48782,7 @@
       <c r="G23" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R23" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48814,7 +48808,7 @@
       <c r="G24" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48840,7 +48834,7 @@
       <c r="G25" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R25" s="20">
+      <c r="R25" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48866,7 +48860,7 @@
       <c r="G26" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="19">
         <v>1.95</v>
       </c>
     </row>
@@ -48892,7 +48886,7 @@
       <c r="G27" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R27" s="20">
+      <c r="R27" s="19">
         <v>1.964</v>
       </c>
     </row>
@@ -48918,7 +48912,7 @@
       <c r="G28" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R28" s="20">
+      <c r="R28" s="19">
         <v>2.0499999999999998</v>
       </c>
     </row>
@@ -48944,7 +48938,7 @@
       <c r="G29" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R29" s="20">
+      <c r="R29" s="19">
         <v>2.0910000000000002</v>
       </c>
     </row>
@@ -48970,7 +48964,7 @@
       <c r="G30" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R30" s="20">
+      <c r="R30" s="19">
         <v>2.1320000000000001</v>
       </c>
     </row>
@@ -48996,7 +48990,7 @@
       <c r="G31" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R31" s="20">
+      <c r="R31" s="19">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -49022,7 +49016,7 @@
       <c r="G32" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R32" s="19">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -49048,7 +49042,7 @@
       <c r="G33" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R33" s="20">
+      <c r="R33" s="19">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -49074,7 +49068,7 @@
       <c r="G34" s="3">
         <v>1.1789999999999998</v>
       </c>
-      <c r="R34" s="20">
+      <c r="R34" s="19">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -49100,7 +49094,7 @@
       <c r="G35" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R35" s="20">
+      <c r="R35" s="19">
         <v>2.3370000000000002</v>
       </c>
     </row>
@@ -49126,7 +49120,7 @@
       <c r="G36" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R36" s="20">
+      <c r="R36" s="19">
         <v>2.3620000000000001</v>
       </c>
     </row>
@@ -49152,7 +49146,7 @@
       <c r="G37" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R37" s="20">
+      <c r="R37" s="19">
         <v>2.395</v>
       </c>
     </row>
@@ -49178,7 +49172,7 @@
       <c r="G38" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R38" s="20">
+      <c r="R38" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49204,7 +49198,7 @@
       <c r="G39" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R39" s="20">
+      <c r="R39" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49230,7 +49224,7 @@
       <c r="G40" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R40" s="20">
+      <c r="R40" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49256,7 +49250,7 @@
       <c r="G41" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R41" s="20">
+      <c r="R41" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49282,7 +49276,7 @@
       <c r="G42" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R42" s="20">
+      <c r="R42" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49308,7 +49302,7 @@
       <c r="G43" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R43" s="20">
+      <c r="R43" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49334,7 +49328,7 @@
       <c r="G44" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R44" s="20">
+      <c r="R44" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49360,7 +49354,7 @@
       <c r="G45" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R45" s="20">
+      <c r="R45" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49386,7 +49380,7 @@
       <c r="G46" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R46" s="20">
+      <c r="R46" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49412,7 +49406,7 @@
       <c r="G47" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R47" s="20">
+      <c r="R47" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49438,7 +49432,7 @@
       <c r="G48" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R48" s="20">
+      <c r="R48" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49464,7 +49458,7 @@
       <c r="G49" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R49" s="20">
+      <c r="R49" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49490,7 +49484,7 @@
       <c r="G50" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R50" s="20">
+      <c r="R50" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49516,7 +49510,7 @@
       <c r="G51" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R51" s="20">
+      <c r="R51" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49542,7 +49536,7 @@
       <c r="G52" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R52" s="20">
+      <c r="R52" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49568,7 +49562,7 @@
       <c r="G53" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R53" s="20">
+      <c r="R53" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49594,7 +49588,7 @@
       <c r="G54" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R54" s="20">
+      <c r="R54" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49620,7 +49614,7 @@
       <c r="G55" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R55" s="20">
+      <c r="R55" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49646,7 +49640,7 @@
       <c r="G56" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R56" s="20">
+      <c r="R56" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49672,7 +49666,7 @@
       <c r="G57" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R57" s="20">
+      <c r="R57" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49698,7 +49692,7 @@
       <c r="G58" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R58" s="20">
+      <c r="R58" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49724,7 +49718,7 @@
       <c r="G59" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R59" s="20">
+      <c r="R59" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49750,7 +49744,7 @@
       <c r="G60" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R60" s="20">
+      <c r="R60" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49776,7 +49770,7 @@
       <c r="G61" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R61" s="20">
+      <c r="R61" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49802,7 +49796,7 @@
       <c r="G62" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R62" s="20">
+      <c r="R62" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49828,7 +49822,7 @@
       <c r="G63" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R63" s="20">
+      <c r="R63" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49854,7 +49848,7 @@
       <c r="G64" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R64" s="20">
+      <c r="R64" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49880,7 +49874,7 @@
       <c r="G65" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R65" s="20">
+      <c r="R65" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49906,7 +49900,7 @@
       <c r="G66" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R66" s="20">
+      <c r="R66" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49932,7 +49926,7 @@
       <c r="G67" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R67" s="20">
+      <c r="R67" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49958,7 +49952,7 @@
       <c r="G68" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R68" s="20">
+      <c r="R68" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -49984,7 +49978,7 @@
       <c r="G69" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R69" s="20">
+      <c r="R69" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50010,7 +50004,7 @@
       <c r="G70" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R70" s="20">
+      <c r="R70" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50036,7 +50030,7 @@
       <c r="G71" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R71" s="20">
+      <c r="R71" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50062,7 +50056,7 @@
       <c r="G72" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R72" s="20">
+      <c r="R72" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50088,7 +50082,7 @@
       <c r="G73" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R73" s="20">
+      <c r="R73" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50114,7 +50108,7 @@
       <c r="G74" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R74" s="20">
+      <c r="R74" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50140,7 +50134,7 @@
       <c r="G75" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R75" s="20">
+      <c r="R75" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50166,7 +50160,7 @@
       <c r="G76" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R76" s="20">
+      <c r="R76" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50192,7 +50186,7 @@
       <c r="G77" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R77" s="20">
+      <c r="R77" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50218,7 +50212,7 @@
       <c r="G78" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R78" s="20">
+      <c r="R78" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50244,7 +50238,7 @@
       <c r="G79" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R79" s="20">
+      <c r="R79" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50270,7 +50264,7 @@
       <c r="G80" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R80" s="20">
+      <c r="R80" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50296,7 +50290,7 @@
       <c r="G81" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R81" s="20">
+      <c r="R81" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50322,7 +50316,7 @@
       <c r="G82" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R82" s="20">
+      <c r="R82" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50348,7 +50342,7 @@
       <c r="G83" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R83" s="20">
+      <c r="R83" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50374,7 +50368,7 @@
       <c r="G84" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R84" s="20">
+      <c r="R84" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50400,7 +50394,7 @@
       <c r="G85" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R85" s="20">
+      <c r="R85" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50426,7 +50420,7 @@
       <c r="G86" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R86" s="20">
+      <c r="R86" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50452,7 +50446,7 @@
       <c r="G87" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R87" s="20">
+      <c r="R87" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50478,7 +50472,7 @@
       <c r="G88" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R88" s="20">
+      <c r="R88" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50504,7 +50498,7 @@
       <c r="G89" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R89" s="20">
+      <c r="R89" s="19">
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -50530,7 +50524,7 @@
       <c r="G90" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R90" s="20">
+      <c r="R90" s="19">
         <v>2.5</v>
       </c>
     </row>
@@ -50556,7 +50550,7 @@
       <c r="G91" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R91" s="20">
+      <c r="R91" s="19">
         <v>2.5</v>
       </c>
     </row>
@@ -50582,7 +50576,7 @@
       <c r="G92" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R92" s="20">
+      <c r="R92" s="19">
         <v>2.57</v>
       </c>
     </row>
@@ -50608,7 +50602,7 @@
       <c r="G93" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R93" s="20">
+      <c r="R93" s="19">
         <v>2.6</v>
       </c>
     </row>
@@ -50634,7 +50628,7 @@
       <c r="G94" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R94" s="20">
+      <c r="R94" s="19">
         <v>2.65</v>
       </c>
     </row>
@@ -50660,7 +50654,7 @@
       <c r="G95" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R95" s="20">
+      <c r="R95" s="19">
         <v>2.65</v>
       </c>
     </row>
@@ -50686,7 +50680,7 @@
       <c r="G96" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R96" s="20">
+      <c r="R96" s="19">
         <v>2.65</v>
       </c>
     </row>
@@ -50712,7 +50706,7 @@
       <c r="G97" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R97" s="20">
+      <c r="R97" s="19">
         <v>2.653</v>
       </c>
     </row>
@@ -50738,7 +50732,7 @@
       <c r="G98" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R98" s="20">
+      <c r="R98" s="19">
         <v>2.6869999999999998</v>
       </c>
     </row>
@@ -50764,7 +50758,7 @@
       <c r="G99" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R99" s="20">
+      <c r="R99" s="19">
         <v>2.69</v>
       </c>
     </row>
@@ -50790,7 +50784,7 @@
       <c r="G100" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R100" s="20">
+      <c r="R100" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -50816,7 +50810,7 @@
       <c r="G101" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R101" s="20">
+      <c r="R101" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -50842,7 +50836,7 @@
       <c r="G102" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R102" s="20">
+      <c r="R102" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -50868,7 +50862,7 @@
       <c r="G103" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R103" s="20">
+      <c r="R103" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -50894,7 +50888,7 @@
       <c r="G104" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R104" s="20">
+      <c r="R104" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -50920,7 +50914,7 @@
       <c r="G105" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R105" s="20">
+      <c r="R105" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -50946,7 +50940,7 @@
       <c r="G106" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R106" s="20">
+      <c r="R106" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -50972,7 +50966,7 @@
       <c r="G107" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R107" s="20">
+      <c r="R107" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -50998,7 +50992,7 @@
       <c r="G108" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R108" s="20">
+      <c r="R108" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51024,7 +51018,7 @@
       <c r="G109" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R109" s="20">
+      <c r="R109" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51050,7 +51044,7 @@
       <c r="G110" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R110" s="20">
+      <c r="R110" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51076,7 +51070,7 @@
       <c r="G111" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R111" s="20">
+      <c r="R111" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51102,7 +51096,7 @@
       <c r="G112" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R112" s="20">
+      <c r="R112" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51128,7 +51122,7 @@
       <c r="G113" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R113" s="20">
+      <c r="R113" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51154,7 +51148,7 @@
       <c r="G114" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R114" s="20">
+      <c r="R114" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51180,7 +51174,7 @@
       <c r="G115" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R115" s="20">
+      <c r="R115" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51206,7 +51200,7 @@
       <c r="G116" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R116" s="20">
+      <c r="R116" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51232,7 +51226,7 @@
       <c r="G117" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R117" s="20">
+      <c r="R117" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51258,7 +51252,7 @@
       <c r="G118" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R118" s="20">
+      <c r="R118" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51284,7 +51278,7 @@
       <c r="G119" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R119" s="20">
+      <c r="R119" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51310,7 +51304,7 @@
       <c r="G120" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R120" s="20">
+      <c r="R120" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51336,7 +51330,7 @@
       <c r="G121" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R121" s="20">
+      <c r="R121" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51362,7 +51356,7 @@
       <c r="G122" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R122" s="20">
+      <c r="R122" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51388,7 +51382,7 @@
       <c r="G123" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R123" s="20">
+      <c r="R123" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51414,7 +51408,7 @@
       <c r="G124" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R124" s="20">
+      <c r="R124" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51440,7 +51434,7 @@
       <c r="G125" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R125" s="20">
+      <c r="R125" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51466,7 +51460,7 @@
       <c r="G126" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R126" s="20">
+      <c r="R126" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51492,7 +51486,7 @@
       <c r="G127" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R127" s="20">
+      <c r="R127" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51518,7 +51512,7 @@
       <c r="G128" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R128" s="20">
+      <c r="R128" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51544,7 +51538,7 @@
       <c r="G129" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R129" s="20">
+      <c r="R129" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51570,7 +51564,7 @@
       <c r="G130" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R130" s="20">
+      <c r="R130" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51596,7 +51590,7 @@
       <c r="G131" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R131" s="20">
+      <c r="R131" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51622,7 +51616,7 @@
       <c r="G132" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R132" s="20">
+      <c r="R132" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51648,7 +51642,7 @@
       <c r="G133" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R133" s="20">
+      <c r="R133" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51674,7 +51668,7 @@
       <c r="G134" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R134" s="20">
+      <c r="R134" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51700,7 +51694,7 @@
       <c r="G135" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R135" s="20">
+      <c r="R135" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51726,7 +51720,7 @@
       <c r="G136" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R136" s="20">
+      <c r="R136" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51752,7 +51746,7 @@
       <c r="G137" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R137" s="20">
+      <c r="R137" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51778,7 +51772,7 @@
       <c r="G138" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R138" s="20">
+      <c r="R138" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51804,7 +51798,7 @@
       <c r="G139" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R139" s="20">
+      <c r="R139" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51830,7 +51824,7 @@
       <c r="G140" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R140" s="20">
+      <c r="R140" s="19">
         <v>2.7</v>
       </c>
     </row>
@@ -51856,7 +51850,7 @@
       <c r="G141" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R141" s="20">
+      <c r="R141" s="19">
         <v>2.7370000000000001</v>
       </c>
     </row>
@@ -51882,7 +51876,7 @@
       <c r="G142" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R142" s="20">
+      <c r="R142" s="19">
         <v>2.7370000000000001</v>
       </c>
     </row>
@@ -51908,7 +51902,7 @@
       <c r="G143" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R143" s="20">
+      <c r="R143" s="19">
         <v>2.75</v>
       </c>
     </row>
@@ -51934,7 +51928,7 @@
       <c r="G144" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R144" s="20">
+      <c r="R144" s="19">
         <v>2.7509999999999999</v>
       </c>
     </row>
@@ -51960,7 +51954,7 @@
       <c r="G145" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R145" s="20">
+      <c r="R145" s="19">
         <v>2.8</v>
       </c>
     </row>
@@ -51986,7 +51980,7 @@
       <c r="G146" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R146" s="20">
+      <c r="R146" s="19">
         <v>2.8</v>
       </c>
     </row>
@@ -52012,7 +52006,7 @@
       <c r="G147" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R147" s="20">
+      <c r="R147" s="19">
         <v>2.8</v>
       </c>
     </row>
@@ -52038,7 +52032,7 @@
       <c r="G148" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R148" s="20">
+      <c r="R148" s="19">
         <v>2.819</v>
       </c>
     </row>
@@ -52064,7 +52058,7 @@
       <c r="G149" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R149" s="20">
+      <c r="R149" s="19">
         <v>2.8220000000000001</v>
       </c>
     </row>
@@ -52090,7 +52084,7 @@
       <c r="G150" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R150" s="20">
+      <c r="R150" s="19">
         <v>2.8250000000000002</v>
       </c>
     </row>
@@ -52116,7 +52110,7 @@
       <c r="G151" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R151" s="20">
+      <c r="R151" s="19">
         <v>2.8279999999999998</v>
       </c>
     </row>
@@ -52142,7 +52136,7 @@
       <c r="G152" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R152" s="20">
+      <c r="R152" s="19">
         <v>2.863</v>
       </c>
     </row>
@@ -52168,7 +52162,7 @@
       <c r="G153" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R153" s="20">
+      <c r="R153" s="19">
         <v>2.8639999999999999</v>
       </c>
     </row>
@@ -52194,7 +52188,7 @@
       <c r="G154" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R154" s="20">
+      <c r="R154" s="19">
         <v>2.8740000000000001</v>
       </c>
     </row>
@@ -52220,7 +52214,7 @@
       <c r="G155" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R155" s="20">
+      <c r="R155" s="19">
         <v>2.9169999999999998</v>
       </c>
     </row>
@@ -52246,7 +52240,7 @@
       <c r="G156" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R156" s="20">
+      <c r="R156" s="19">
         <v>2.9220000000000002</v>
       </c>
     </row>
@@ -52272,7 +52266,7 @@
       <c r="G157" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R157" s="20">
+      <c r="R157" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52298,7 +52292,7 @@
       <c r="G158" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R158" s="20">
+      <c r="R158" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52324,7 +52318,7 @@
       <c r="G159" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R159" s="20">
+      <c r="R159" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52350,7 +52344,7 @@
       <c r="G160" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R160" s="20">
+      <c r="R160" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52376,7 +52370,7 @@
       <c r="G161" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R161" s="20">
+      <c r="R161" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52402,7 +52396,7 @@
       <c r="G162" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R162" s="20">
+      <c r="R162" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52428,7 +52422,7 @@
       <c r="G163" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R163" s="20">
+      <c r="R163" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52454,7 +52448,7 @@
       <c r="G164" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R164" s="20">
+      <c r="R164" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52480,7 +52474,7 @@
       <c r="G165" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R165" s="20">
+      <c r="R165" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52506,7 +52500,7 @@
       <c r="G166" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R166" s="20">
+      <c r="R166" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52532,7 +52526,7 @@
       <c r="G167" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R167" s="20">
+      <c r="R167" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52558,7 +52552,7 @@
       <c r="G168" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R168" s="20">
+      <c r="R168" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52584,7 +52578,7 @@
       <c r="G169" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R169" s="20">
+      <c r="R169" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52610,7 +52604,7 @@
       <c r="G170" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R170" s="20">
+      <c r="R170" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52636,7 +52630,7 @@
       <c r="G171" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R171" s="20">
+      <c r="R171" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52662,7 +52656,7 @@
       <c r="G172" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R172" s="20">
+      <c r="R172" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52688,7 +52682,7 @@
       <c r="G173" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R173" s="20">
+      <c r="R173" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52714,7 +52708,7 @@
       <c r="G174" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R174" s="20">
+      <c r="R174" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52740,7 +52734,7 @@
       <c r="G175" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R175" s="20">
+      <c r="R175" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52766,7 +52760,7 @@
       <c r="G176" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R176" s="20">
+      <c r="R176" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52792,7 +52786,7 @@
       <c r="G177" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R177" s="20">
+      <c r="R177" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52818,7 +52812,7 @@
       <c r="G178" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R178" s="20">
+      <c r="R178" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52844,7 +52838,7 @@
       <c r="G179" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R179" s="20">
+      <c r="R179" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52870,7 +52864,7 @@
       <c r="G180" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R180" s="20">
+      <c r="R180" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52896,7 +52890,7 @@
       <c r="G181" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R181" s="20">
+      <c r="R181" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52922,7 +52916,7 @@
       <c r="G182" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R182" s="20">
+      <c r="R182" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52948,7 +52942,7 @@
       <c r="G183" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R183" s="20">
+      <c r="R183" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -52974,7 +52968,7 @@
       <c r="G184" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R184" s="20">
+      <c r="R184" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53000,7 +52994,7 @@
       <c r="G185" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R185" s="20">
+      <c r="R185" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53026,7 +53020,7 @@
       <c r="G186" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R186" s="20">
+      <c r="R186" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53052,7 +53046,7 @@
       <c r="G187" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R187" s="20">
+      <c r="R187" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53078,7 +53072,7 @@
       <c r="G188" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R188" s="20">
+      <c r="R188" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53104,7 +53098,7 @@
       <c r="G189" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R189" s="20">
+      <c r="R189" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53130,7 +53124,7 @@
       <c r="G190" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R190" s="20">
+      <c r="R190" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53156,7 +53150,7 @@
       <c r="G191" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R191" s="20">
+      <c r="R191" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53182,7 +53176,7 @@
       <c r="G192" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R192" s="20">
+      <c r="R192" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53208,7 +53202,7 @@
       <c r="G193" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R193" s="20">
+      <c r="R193" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53234,7 +53228,7 @@
       <c r="G194" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R194" s="20">
+      <c r="R194" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53260,7 +53254,7 @@
       <c r="G195" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R195" s="20">
+      <c r="R195" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53286,7 +53280,7 @@
       <c r="G196" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R196" s="20">
+      <c r="R196" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53312,7 +53306,7 @@
       <c r="G197" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R197" s="20">
+      <c r="R197" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53338,7 +53332,7 @@
       <c r="G198" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R198" s="20">
+      <c r="R198" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53364,7 +53358,7 @@
       <c r="G199" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R199" s="20">
+      <c r="R199" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53390,7 +53384,7 @@
       <c r="G200" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R200" s="20">
+      <c r="R200" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53416,7 +53410,7 @@
       <c r="G201" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R201" s="20">
+      <c r="R201" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53442,7 +53436,7 @@
       <c r="G202" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R202" s="20">
+      <c r="R202" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53468,7 +53462,7 @@
       <c r="G203" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R203" s="20">
+      <c r="R203" s="19">
         <v>2.95</v>
       </c>
     </row>
@@ -53494,7 +53488,7 @@
       <c r="G204" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R204" s="20">
+      <c r="R204" s="19">
         <v>2.952</v>
       </c>
     </row>
@@ -53520,7 +53514,7 @@
       <c r="G205" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R205" s="20">
+      <c r="R205" s="19">
         <v>2.968</v>
       </c>
     </row>
@@ -53546,7 +53540,7 @@
       <c r="G206" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R206" s="20">
+      <c r="R206" s="19">
         <v>2.98</v>
       </c>
     </row>
@@ -53572,7 +53566,7 @@
       <c r="G207" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R207" s="20">
+      <c r="R207" s="19">
         <v>2.9870000000000001</v>
       </c>
     </row>
@@ -53598,7 +53592,7 @@
       <c r="G208" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R208" s="20">
+      <c r="R208" s="19">
         <v>2.9889999999999999</v>
       </c>
     </row>
@@ -53624,7 +53618,7 @@
       <c r="G209" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R209" s="20">
+      <c r="R209" s="19">
         <v>3</v>
       </c>
     </row>
@@ -53650,7 +53644,7 @@
       <c r="G210" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R210" s="20">
+      <c r="R210" s="19">
         <v>3.044</v>
       </c>
     </row>
@@ -53676,7 +53670,7 @@
       <c r="G211" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R211" s="20">
+      <c r="R211" s="19">
         <v>3.05</v>
       </c>
     </row>
@@ -53702,7 +53696,7 @@
       <c r="G212" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R212" s="20">
+      <c r="R212" s="19">
         <v>3.0640000000000001</v>
       </c>
     </row>
@@ -53728,7 +53722,7 @@
       <c r="G213" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R213" s="20">
+      <c r="R213" s="19">
         <v>3.0640000000000001</v>
       </c>
     </row>
@@ -53754,7 +53748,7 @@
       <c r="G214" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R214" s="20">
+      <c r="R214" s="19">
         <v>3.0640000000000001</v>
       </c>
     </row>
@@ -53780,7 +53774,7 @@
       <c r="G215" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R215" s="20">
+      <c r="R215" s="19">
         <v>3.0779999999999998</v>
       </c>
     </row>
@@ -53806,7 +53800,7 @@
       <c r="G216" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R216" s="20">
+      <c r="R216" s="19">
         <v>3.0779999999999998</v>
       </c>
     </row>
@@ -53832,7 +53826,7 @@
       <c r="G217" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R217" s="20">
+      <c r="R217" s="19">
         <v>3.1</v>
       </c>
     </row>
@@ -53858,7 +53852,7 @@
       <c r="G218" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R218" s="20">
+      <c r="R218" s="19">
         <v>3.1</v>
       </c>
     </row>
@@ -53884,7 +53878,7 @@
       <c r="G219" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R219" s="20">
+      <c r="R219" s="19">
         <v>3.1</v>
       </c>
     </row>
@@ -53910,7 +53904,7 @@
       <c r="G220" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R220" s="20">
+      <c r="R220" s="19">
         <v>3.1</v>
       </c>
     </row>
@@ -53936,7 +53930,7 @@
       <c r="G221" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R221" s="20">
+      <c r="R221" s="19">
         <v>3.113</v>
       </c>
     </row>
@@ -53962,7 +53956,7 @@
       <c r="G222" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R222" s="20">
+      <c r="R222" s="19">
         <v>3.15</v>
       </c>
     </row>
@@ -53988,7 +53982,7 @@
       <c r="G223" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R223" s="20">
+      <c r="R223" s="19">
         <v>3.17</v>
       </c>
     </row>
@@ -54014,7 +54008,7 @@
       <c r="G224" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R224" s="20">
+      <c r="R224" s="19">
         <v>3.1709999999999998</v>
       </c>
     </row>
@@ -54040,7 +54034,7 @@
       <c r="G225" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R225" s="20">
+      <c r="R225" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54066,7 +54060,7 @@
       <c r="G226" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R226" s="20">
+      <c r="R226" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54092,7 +54086,7 @@
       <c r="G227" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R227" s="20">
+      <c r="R227" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54118,7 +54112,7 @@
       <c r="G228" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R228" s="20">
+      <c r="R228" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54144,7 +54138,7 @@
       <c r="G229" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R229" s="20">
+      <c r="R229" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54170,7 +54164,7 @@
       <c r="G230" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R230" s="20">
+      <c r="R230" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54196,7 +54190,7 @@
       <c r="G231" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R231" s="20">
+      <c r="R231" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54222,7 +54216,7 @@
       <c r="G232" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R232" s="20">
+      <c r="R232" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54248,7 +54242,7 @@
       <c r="G233" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R233" s="20">
+      <c r="R233" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54274,7 +54268,7 @@
       <c r="G234" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R234" s="20">
+      <c r="R234" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54300,7 +54294,7 @@
       <c r="G235" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R235" s="20">
+      <c r="R235" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54326,7 +54320,7 @@
       <c r="G236" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R236" s="20">
+      <c r="R236" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54352,7 +54346,7 @@
       <c r="G237" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R237" s="20">
+      <c r="R237" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54378,7 +54372,7 @@
       <c r="G238" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R238" s="20">
+      <c r="R238" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54404,7 +54398,7 @@
       <c r="G239" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R239" s="20">
+      <c r="R239" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54430,7 +54424,7 @@
       <c r="G240" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R240" s="20">
+      <c r="R240" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54456,7 +54450,7 @@
       <c r="G241" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R241" s="20">
+      <c r="R241" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54482,7 +54476,7 @@
       <c r="G242" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R242" s="20">
+      <c r="R242" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54508,7 +54502,7 @@
       <c r="G243" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R243" s="20">
+      <c r="R243" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54534,7 +54528,7 @@
       <c r="G244" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R244" s="20">
+      <c r="R244" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54560,7 +54554,7 @@
       <c r="G245" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R245" s="20">
+      <c r="R245" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54586,7 +54580,7 @@
       <c r="G246" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R246" s="20">
+      <c r="R246" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54612,7 +54606,7 @@
       <c r="G247" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R247" s="20">
+      <c r="R247" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54638,7 +54632,7 @@
       <c r="G248" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R248" s="20">
+      <c r="R248" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54664,7 +54658,7 @@
       <c r="G249" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R249" s="20">
+      <c r="R249" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54690,7 +54684,7 @@
       <c r="G250" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R250" s="20">
+      <c r="R250" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54716,7 +54710,7 @@
       <c r="G251" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R251" s="20">
+      <c r="R251" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54742,7 +54736,7 @@
       <c r="G252" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R252" s="20">
+      <c r="R252" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54768,7 +54762,7 @@
       <c r="G253" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R253" s="20">
+      <c r="R253" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54794,7 +54788,7 @@
       <c r="G254" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R254" s="20">
+      <c r="R254" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54820,7 +54814,7 @@
       <c r="G255" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R255" s="20">
+      <c r="R255" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54846,7 +54840,7 @@
       <c r="G256" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R256" s="20">
+      <c r="R256" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54872,7 +54866,7 @@
       <c r="G257" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R257" s="20">
+      <c r="R257" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54898,7 +54892,7 @@
       <c r="G258" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R258" s="20">
+      <c r="R258" s="19">
         <v>3.2</v>
       </c>
     </row>
@@ -54924,7 +54918,7 @@
       <c r="G259" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R259" s="20">
+      <c r="R259" s="19">
         <v>3.2309999999999999</v>
       </c>
     </row>
@@ -54950,7 +54944,7 @@
       <c r="G260" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R260" s="20">
+      <c r="R260" s="19">
         <v>3.234</v>
       </c>
     </row>
@@ -54976,7 +54970,7 @@
       <c r="G261" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R261" s="20">
+      <c r="R261" s="19">
         <v>3.2349999999999999</v>
       </c>
     </row>
@@ -55002,7 +54996,7 @@
       <c r="G262" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R262" s="20">
+      <c r="R262" s="19">
         <v>3.242</v>
       </c>
     </row>
@@ -55028,7 +55022,7 @@
       <c r="G263" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R263" s="20">
+      <c r="R263" s="19">
         <v>3.25</v>
       </c>
     </row>
@@ -55054,7 +55048,7 @@
       <c r="G264" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R264" s="20">
+      <c r="R264" s="19">
         <v>3.25</v>
       </c>
     </row>
@@ -55080,7 +55074,7 @@
       <c r="G265" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R265" s="20">
+      <c r="R265" s="19">
         <v>3.266</v>
       </c>
     </row>
@@ -55106,7 +55100,7 @@
       <c r="G266" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R266" s="20">
+      <c r="R266" s="19">
         <v>3.3</v>
       </c>
     </row>
@@ -55132,7 +55126,7 @@
       <c r="G267" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R267" s="20">
+      <c r="R267" s="19">
         <v>3.3</v>
       </c>
     </row>
@@ -55158,7 +55152,7 @@
       <c r="G268" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R268" s="20">
+      <c r="R268" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55184,7 +55178,7 @@
       <c r="G269" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R269" s="20">
+      <c r="R269" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55210,7 +55204,7 @@
       <c r="G270" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R270" s="20">
+      <c r="R270" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55236,7 +55230,7 @@
       <c r="G271" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R271" s="20">
+      <c r="R271" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55262,7 +55256,7 @@
       <c r="G272" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R272" s="20">
+      <c r="R272" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55288,7 +55282,7 @@
       <c r="G273" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R273" s="20">
+      <c r="R273" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55314,7 +55308,7 @@
       <c r="G274" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R274" s="20">
+      <c r="R274" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55340,7 +55334,7 @@
       <c r="G275" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R275" s="20">
+      <c r="R275" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55366,7 +55360,7 @@
       <c r="G276" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R276" s="20">
+      <c r="R276" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55392,7 +55386,7 @@
       <c r="G277" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R277" s="20">
+      <c r="R277" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55418,7 +55412,7 @@
       <c r="G278" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R278" s="20">
+      <c r="R278" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55444,7 +55438,7 @@
       <c r="G279" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R279" s="20">
+      <c r="R279" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55470,7 +55464,7 @@
       <c r="G280" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R280" s="20">
+      <c r="R280" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55496,7 +55490,7 @@
       <c r="G281" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R281" s="20">
+      <c r="R281" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55522,7 +55516,7 @@
       <c r="G282" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R282" s="20">
+      <c r="R282" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55548,7 +55542,7 @@
       <c r="G283" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R283" s="20">
+      <c r="R283" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55574,7 +55568,7 @@
       <c r="G284" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R284" s="20">
+      <c r="R284" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55600,7 +55594,7 @@
       <c r="G285" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R285" s="20">
+      <c r="R285" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55626,7 +55620,7 @@
       <c r="G286" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R286" s="20">
+      <c r="R286" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55652,7 +55646,7 @@
       <c r="G287" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R287" s="20">
+      <c r="R287" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55678,7 +55672,7 @@
       <c r="G288" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R288" s="20">
+      <c r="R288" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55704,7 +55698,7 @@
       <c r="G289" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R289" s="20">
+      <c r="R289" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55730,7 +55724,7 @@
       <c r="G290" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R290" s="20">
+      <c r="R290" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55756,7 +55750,7 @@
       <c r="G291" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R291" s="20">
+      <c r="R291" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55782,7 +55776,7 @@
       <c r="G292" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R292" s="20">
+      <c r="R292" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55808,7 +55802,7 @@
       <c r="G293" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R293" s="20">
+      <c r="R293" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55834,7 +55828,7 @@
       <c r="G294" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R294" s="20">
+      <c r="R294" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55860,7 +55854,7 @@
       <c r="G295" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R295" s="20">
+      <c r="R295" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55886,7 +55880,7 @@
       <c r="G296" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R296" s="20">
+      <c r="R296" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55912,7 +55906,7 @@
       <c r="G297" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R297" s="20">
+      <c r="R297" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55938,7 +55932,7 @@
       <c r="G298" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R298" s="20">
+      <c r="R298" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55964,7 +55958,7 @@
       <c r="G299" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R299" s="20">
+      <c r="R299" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -55990,7 +55984,7 @@
       <c r="G300" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R300" s="20">
+      <c r="R300" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56016,7 +56010,7 @@
       <c r="G301" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R301" s="20">
+      <c r="R301" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56042,7 +56036,7 @@
       <c r="G302" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R302" s="20">
+      <c r="R302" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56068,7 +56062,7 @@
       <c r="G303" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R303" s="20">
+      <c r="R303" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56094,7 +56088,7 @@
       <c r="G304" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R304" s="20">
+      <c r="R304" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56120,7 +56114,7 @@
       <c r="G305" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R305" s="20">
+      <c r="R305" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56146,7 +56140,7 @@
       <c r="G306" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R306" s="20">
+      <c r="R306" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56172,7 +56166,7 @@
       <c r="G307" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R307" s="20">
+      <c r="R307" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56198,7 +56192,7 @@
       <c r="G308" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R308" s="20">
+      <c r="R308" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56224,7 +56218,7 @@
       <c r="G309" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R309" s="20">
+      <c r="R309" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56250,7 +56244,7 @@
       <c r="G310" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R310" s="20">
+      <c r="R310" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56276,7 +56270,7 @@
       <c r="G311" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R311" s="20">
+      <c r="R311" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56302,7 +56296,7 @@
       <c r="G312" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R312" s="20">
+      <c r="R312" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56328,7 +56322,7 @@
       <c r="G313" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R313" s="20">
+      <c r="R313" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56354,7 +56348,7 @@
       <c r="G314" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R314" s="20">
+      <c r="R314" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56380,7 +56374,7 @@
       <c r="G315" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R315" s="20">
+      <c r="R315" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56406,7 +56400,7 @@
       <c r="G316" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R316" s="20">
+      <c r="R316" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56432,7 +56426,7 @@
       <c r="G317" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R317" s="20">
+      <c r="R317" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56458,7 +56452,7 @@
       <c r="G318" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R318" s="20">
+      <c r="R318" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56484,7 +56478,7 @@
       <c r="G319" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R319" s="20">
+      <c r="R319" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56510,7 +56504,7 @@
       <c r="G320" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R320" s="20">
+      <c r="R320" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56536,7 +56530,7 @@
       <c r="G321" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R321" s="20">
+      <c r="R321" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56562,7 +56556,7 @@
       <c r="G322" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R322" s="20">
+      <c r="R322" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56588,7 +56582,7 @@
       <c r="G323" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R323" s="20">
+      <c r="R323" s="19">
         <v>3.45</v>
       </c>
     </row>
@@ -56614,7 +56608,7 @@
       <c r="G324" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R324" s="20">
+      <c r="R324" s="19">
         <v>3.55</v>
       </c>
     </row>
@@ -56640,7 +56634,7 @@
       <c r="G325" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R325" s="20">
+      <c r="R325" s="19">
         <v>3.55</v>
       </c>
     </row>
@@ -56666,7 +56660,7 @@
       <c r="G326" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R326" s="20">
+      <c r="R326" s="19">
         <v>3.569</v>
       </c>
     </row>
@@ -56692,7 +56686,7 @@
       <c r="G327" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R327" s="20">
+      <c r="R327" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -56718,7 +56712,7 @@
       <c r="G328" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R328" s="20">
+      <c r="R328" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -56744,7 +56738,7 @@
       <c r="G329" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R329" s="20">
+      <c r="R329" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -56770,7 +56764,7 @@
       <c r="G330" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R330" s="20">
+      <c r="R330" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -56796,7 +56790,7 @@
       <c r="G331" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R331" s="20">
+      <c r="R331" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -56822,7 +56816,7 @@
       <c r="G332" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R332" s="20">
+      <c r="R332" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -56848,7 +56842,7 @@
       <c r="G333" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R333" s="20">
+      <c r="R333" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -56874,7 +56868,7 @@
       <c r="G334" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R334" s="20">
+      <c r="R334" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -56900,7 +56894,7 @@
       <c r="G335" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R335" s="20">
+      <c r="R335" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -56926,7 +56920,7 @@
       <c r="G336" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R336" s="20">
+      <c r="R336" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -56952,7 +56946,7 @@
       <c r="G337" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R337" s="20">
+      <c r="R337" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -56978,7 +56972,7 @@
       <c r="G338" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R338" s="20">
+      <c r="R338" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57004,7 +56998,7 @@
       <c r="G339" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R339" s="20">
+      <c r="R339" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57030,7 +57024,7 @@
       <c r="G340" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R340" s="20">
+      <c r="R340" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57056,7 +57050,7 @@
       <c r="G341" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R341" s="20">
+      <c r="R341" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57082,7 +57076,7 @@
       <c r="G342" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R342" s="20">
+      <c r="R342" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57108,7 +57102,7 @@
       <c r="G343" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R343" s="20">
+      <c r="R343" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57134,7 +57128,7 @@
       <c r="G344" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R344" s="20">
+      <c r="R344" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57160,7 +57154,7 @@
       <c r="G345" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R345" s="20">
+      <c r="R345" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57186,7 +57180,7 @@
       <c r="G346" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R346" s="20">
+      <c r="R346" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57212,7 +57206,7 @@
       <c r="G347" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R347" s="20">
+      <c r="R347" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57238,7 +57232,7 @@
       <c r="G348" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R348" s="20">
+      <c r="R348" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57264,7 +57258,7 @@
       <c r="G349" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R349" s="20">
+      <c r="R349" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57290,7 +57284,7 @@
       <c r="G350" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R350" s="20">
+      <c r="R350" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57316,7 +57310,7 @@
       <c r="G351" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R351" s="20">
+      <c r="R351" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57342,7 +57336,7 @@
       <c r="G352" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R352" s="20">
+      <c r="R352" s="19">
         <v>3.5750000000000002</v>
       </c>
     </row>
@@ -57368,7 +57362,7 @@
       <c r="G353" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R353" s="20">
+      <c r="R353" s="19">
         <v>3.6</v>
       </c>
     </row>
@@ -57394,7 +57388,7 @@
       <c r="G354" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R354" s="20">
+      <c r="R354" s="19">
         <v>3.6240000000000001</v>
       </c>
     </row>
@@ -57420,7 +57414,7 @@
       <c r="G355" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R355" s="20">
+      <c r="R355" s="19">
         <v>3.7</v>
       </c>
     </row>
@@ -57446,7 +57440,7 @@
       <c r="G356" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R356" s="20">
+      <c r="R356" s="19">
         <v>3.7</v>
       </c>
     </row>
@@ -57472,7 +57466,7 @@
       <c r="G357" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R357" s="20">
+      <c r="R357" s="19">
         <v>3.7</v>
       </c>
     </row>
@@ -57498,7 +57492,7 @@
       <c r="G358" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R358" s="20">
+      <c r="R358" s="19">
         <v>3.7</v>
       </c>
     </row>
@@ -57524,7 +57518,7 @@
       <c r="G359" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R359" s="20">
+      <c r="R359" s="19">
         <v>3.7</v>
       </c>
     </row>
@@ -57550,7 +57544,7 @@
       <c r="G360" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R360" s="20">
+      <c r="R360" s="19">
         <v>3.7</v>
       </c>
     </row>
@@ -57576,7 +57570,7 @@
       <c r="G361" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R361" s="20">
+      <c r="R361" s="19">
         <v>3.7</v>
       </c>
     </row>
@@ -57602,7 +57596,7 @@
       <c r="G362" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R362" s="20">
+      <c r="R362" s="19">
         <v>3.7</v>
       </c>
     </row>
@@ -57628,7 +57622,7 @@
       <c r="G363" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R363" s="20">
+      <c r="R363" s="19">
         <v>3.7</v>
       </c>
     </row>
@@ -57654,7 +57648,7 @@
       <c r="G364" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R364" s="20">
+      <c r="R364" s="19">
         <v>3.7</v>
       </c>
     </row>
@@ -57680,7 +57674,7 @@
       <c r="G365" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R365" s="20">
+      <c r="R365" s="19">
         <v>3.7</v>
       </c>
     </row>
@@ -57706,7 +57700,7 @@
       <c r="G366" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R366" s="20">
+      <c r="R366" s="19">
         <v>3.7</v>
       </c>
     </row>
@@ -57732,7 +57726,7 @@
       <c r="G367" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R367" s="20">
+      <c r="R367" s="19">
         <v>3.75</v>
       </c>
     </row>
@@ -57758,7 +57752,7 @@
       <c r="G368" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R368" s="20">
+      <c r="R368" s="19">
         <v>3.75</v>
       </c>
     </row>
@@ -57784,7 +57778,7 @@
       <c r="G369" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R369" s="20">
+      <c r="R369" s="19">
         <v>3.75</v>
       </c>
     </row>
@@ -57810,7 +57804,7 @@
       <c r="G370" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R370" s="20">
+      <c r="R370" s="19">
         <v>3.75</v>
       </c>
     </row>
@@ -57836,7 +57830,7 @@
       <c r="G371" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R371" s="20">
+      <c r="R371" s="19">
         <v>3.75</v>
       </c>
     </row>
@@ -57862,7 +57856,7 @@
       <c r="G372" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R372" s="20">
+      <c r="R372" s="19">
         <v>3.75</v>
       </c>
     </row>
@@ -57888,7 +57882,7 @@
       <c r="G373" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R373" s="20">
+      <c r="R373" s="19">
         <v>3.75</v>
       </c>
     </row>
@@ -57914,7 +57908,7 @@
       <c r="G374" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R374" s="20">
+      <c r="R374" s="19">
         <v>3.75</v>
       </c>
     </row>
@@ -57940,7 +57934,7 @@
       <c r="G375" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R375" s="20">
+      <c r="R375" s="19">
         <v>3.794</v>
       </c>
     </row>
@@ -57966,7 +57960,7 @@
       <c r="G376" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R376" s="20">
+      <c r="R376" s="19">
         <v>3.8620000000000001</v>
       </c>
     </row>
@@ -57992,7 +57986,7 @@
       <c r="G377" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R377" s="20">
+      <c r="R377" s="19">
         <v>3.8639999999999999</v>
       </c>
     </row>
@@ -58018,7 +58012,7 @@
       <c r="G378" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R378" s="20">
+      <c r="R378" s="19">
         <v>3.9209999999999998</v>
       </c>
     </row>
@@ -58044,7 +58038,7 @@
       <c r="G379" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R379" s="20">
+      <c r="R379" s="19">
         <v>3.9239999999999999</v>
       </c>
     </row>
@@ -58070,7 +58064,7 @@
       <c r="G380" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R380" s="20">
+      <c r="R380" s="19">
         <v>3.94</v>
       </c>
     </row>
@@ -58096,7 +58090,7 @@
       <c r="G381" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R381" s="20">
+      <c r="R381" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58122,7 +58116,7 @@
       <c r="G382" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R382" s="20">
+      <c r="R382" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58148,7 +58142,7 @@
       <c r="G383" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R383" s="20">
+      <c r="R383" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58174,7 +58168,7 @@
       <c r="G384" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R384" s="20">
+      <c r="R384" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58200,7 +58194,7 @@
       <c r="G385" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R385" s="20">
+      <c r="R385" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58226,7 +58220,7 @@
       <c r="G386" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R386" s="20">
+      <c r="R386" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58252,7 +58246,7 @@
       <c r="G387" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R387" s="20">
+      <c r="R387" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58278,7 +58272,7 @@
       <c r="G388" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R388" s="20">
+      <c r="R388" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58304,7 +58298,7 @@
       <c r="G389" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R389" s="20">
+      <c r="R389" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58330,7 +58324,7 @@
       <c r="G390" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R390" s="20">
+      <c r="R390" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58356,7 +58350,7 @@
       <c r="G391" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R391" s="20">
+      <c r="R391" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58382,7 +58376,7 @@
       <c r="G392" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R392" s="20">
+      <c r="R392" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58408,7 +58402,7 @@
       <c r="G393" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R393" s="20">
+      <c r="R393" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58434,7 +58428,7 @@
       <c r="G394" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R394" s="20">
+      <c r="R394" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58460,7 +58454,7 @@
       <c r="G395" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R395" s="20">
+      <c r="R395" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58486,7 +58480,7 @@
       <c r="G396" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R396" s="20">
+      <c r="R396" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58512,7 +58506,7 @@
       <c r="G397" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R397" s="20">
+      <c r="R397" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58538,7 +58532,7 @@
       <c r="G398" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R398" s="20">
+      <c r="R398" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58564,7 +58558,7 @@
       <c r="G399" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R399" s="20">
+      <c r="R399" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58590,7 +58584,7 @@
       <c r="G400" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R400" s="20">
+      <c r="R400" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58616,7 +58610,7 @@
       <c r="G401" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R401" s="20">
+      <c r="R401" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58642,7 +58636,7 @@
       <c r="G402" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R402" s="20">
+      <c r="R402" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58668,7 +58662,7 @@
       <c r="G403" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R403" s="20">
+      <c r="R403" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58694,7 +58688,7 @@
       <c r="G404" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R404" s="20">
+      <c r="R404" s="19">
         <v>3.95</v>
       </c>
     </row>
@@ -58720,7 +58714,7 @@
       <c r="G405" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R405" s="20">
+      <c r="R405" s="19">
         <v>3.984</v>
       </c>
     </row>
@@ -58746,7 +58740,7 @@
       <c r="G406" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R406" s="20">
+      <c r="R406" s="19">
         <v>3.9849999999999999</v>
       </c>
     </row>
@@ -58772,7 +58766,7 @@
       <c r="G407" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R407" s="20">
+      <c r="R407" s="19">
         <v>3.99</v>
       </c>
     </row>
@@ -58798,7 +58792,7 @@
       <c r="G408" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R408" s="20">
+      <c r="R408" s="19">
         <v>4</v>
       </c>
     </row>
@@ -58824,7 +58818,7 @@
       <c r="G409" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R409" s="20">
+      <c r="R409" s="19">
         <v>4</v>
       </c>
     </row>
@@ -58850,7 +58844,7 @@
       <c r="G410" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R410" s="20">
+      <c r="R410" s="19">
         <v>4</v>
       </c>
     </row>
@@ -58876,7 +58870,7 @@
       <c r="G411" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R411" s="20">
+      <c r="R411" s="19">
         <v>4</v>
       </c>
     </row>
@@ -58902,7 +58896,7 @@
       <c r="G412" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R412" s="20">
+      <c r="R412" s="19">
         <v>4</v>
       </c>
     </row>
@@ -58928,7 +58922,7 @@
       <c r="G413" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R413" s="20">
+      <c r="R413" s="19">
         <v>4.125</v>
       </c>
     </row>
@@ -58954,7 +58948,7 @@
       <c r="G414" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R414" s="20">
+      <c r="R414" s="19">
         <v>4.1500000000000004</v>
       </c>
     </row>
@@ -58980,7 +58974,7 @@
       <c r="G415" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R415" s="20">
+      <c r="R415" s="19">
         <v>4.2</v>
       </c>
     </row>
@@ -59006,7 +59000,7 @@
       <c r="G416" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R416" s="20">
+      <c r="R416" s="19">
         <v>4.2</v>
       </c>
     </row>
@@ -59032,7 +59026,7 @@
       <c r="G417" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R417" s="20">
+      <c r="R417" s="19">
         <v>4.2</v>
       </c>
     </row>
@@ -59058,7 +59052,7 @@
       <c r="G418" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R418" s="20">
+      <c r="R418" s="19">
         <v>4.2</v>
       </c>
     </row>
@@ -59084,7 +59078,7 @@
       <c r="G419" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R419" s="20">
+      <c r="R419" s="19">
         <v>4.2</v>
       </c>
     </row>
@@ -59110,7 +59104,7 @@
       <c r="G420" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R420" s="20">
+      <c r="R420" s="19">
         <v>4.25</v>
       </c>
     </row>
@@ -59136,7 +59130,7 @@
       <c r="G421" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R421" s="20">
+      <c r="R421" s="19">
         <v>4.25</v>
       </c>
     </row>
@@ -59162,7 +59156,7 @@
       <c r="G422" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R422" s="20">
+      <c r="R422" s="19">
         <v>4.25</v>
       </c>
     </row>
@@ -59188,7 +59182,7 @@
       <c r="G423" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R423" s="20">
+      <c r="R423" s="19">
         <v>4.25</v>
       </c>
     </row>
@@ -59214,7 +59208,7 @@
       <c r="G424" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R424" s="20">
+      <c r="R424" s="19">
         <v>4.25</v>
       </c>
     </row>
@@ -59240,7 +59234,7 @@
       <c r="G425" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R425" s="20">
+      <c r="R425" s="19">
         <v>4.25</v>
       </c>
     </row>
@@ -59266,7 +59260,7 @@
       <c r="G426" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R426" s="20">
+      <c r="R426" s="19">
         <v>4.25</v>
       </c>
     </row>
@@ -59292,7 +59286,7 @@
       <c r="G427" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R427" s="20">
+      <c r="R427" s="19">
         <v>4.45</v>
       </c>
     </row>
@@ -59318,7 +59312,7 @@
       <c r="G428" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R428" s="20">
+      <c r="R428" s="19">
         <v>4.45</v>
       </c>
     </row>
@@ -59344,7 +59338,7 @@
       <c r="G429" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R429" s="20">
+      <c r="R429" s="19">
         <v>4.45</v>
       </c>
     </row>
@@ -59370,7 +59364,7 @@
       <c r="G430" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R430" s="20">
+      <c r="R430" s="19">
         <v>4.45</v>
       </c>
     </row>
@@ -59396,7 +59390,7 @@
       <c r="G431" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R431" s="20">
+      <c r="R431" s="19">
         <v>4.45</v>
       </c>
     </row>
@@ -59422,7 +59416,7 @@
       <c r="G432" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R432" s="20">
+      <c r="R432" s="19">
         <v>4.45</v>
       </c>
     </row>
@@ -59448,7 +59442,7 @@
       <c r="G433" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R433" s="20">
+      <c r="R433" s="19">
         <v>4.45</v>
       </c>
     </row>
@@ -59474,7 +59468,7 @@
       <c r="G434" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R434" s="20">
+      <c r="R434" s="19">
         <v>4.45</v>
       </c>
     </row>
@@ -59500,7 +59494,7 @@
       <c r="G435" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R435" s="20">
+      <c r="R435" s="19">
         <v>4.45</v>
       </c>
     </row>
@@ -59526,7 +59520,7 @@
       <c r="G436" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R436" s="20">
+      <c r="R436" s="19">
         <v>4.45</v>
       </c>
     </row>
@@ -59552,7 +59546,7 @@
       <c r="G437" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R437" s="20">
+      <c r="R437" s="19">
         <v>4.45</v>
       </c>
     </row>
@@ -59578,7 +59572,7 @@
       <c r="G438" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R438" s="20">
+      <c r="R438" s="19">
         <v>4.45</v>
       </c>
     </row>
@@ -59604,7 +59598,7 @@
       <c r="G439" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R439" s="20">
+      <c r="R439" s="19">
         <v>4.5</v>
       </c>
     </row>
@@ -59630,7 +59624,7 @@
       <c r="G440" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R440" s="20">
+      <c r="R440" s="19">
         <v>4.5</v>
       </c>
     </row>
@@ -59656,7 +59650,7 @@
       <c r="G441" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R441" s="20">
+      <c r="R441" s="19">
         <v>4.5</v>
       </c>
     </row>
@@ -59682,7 +59676,7 @@
       <c r="G442" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R442" s="20">
+      <c r="R442" s="19">
         <v>4.5</v>
       </c>
     </row>
@@ -59708,7 +59702,7 @@
       <c r="G443" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R443" s="20">
+      <c r="R443" s="19">
         <v>4.5</v>
       </c>
     </row>
@@ -59734,7 +59728,7 @@
       <c r="G444" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R444" s="20">
+      <c r="R444" s="19">
         <v>4.55</v>
       </c>
     </row>
@@ -59760,7 +59754,7 @@
       <c r="G445" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R445" s="20">
+      <c r="R445" s="19">
         <v>4.7</v>
       </c>
     </row>
@@ -59786,7 +59780,7 @@
       <c r="G446" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R446" s="20">
+      <c r="R446" s="19">
         <v>4.7</v>
       </c>
     </row>
@@ -59812,7 +59806,7 @@
       <c r="G447" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R447" s="20">
+      <c r="R447" s="19">
         <v>4.7</v>
       </c>
     </row>
@@ -59838,7 +59832,7 @@
       <c r="G448" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R448" s="20">
+      <c r="R448" s="19">
         <v>4.7</v>
       </c>
     </row>
@@ -59864,7 +59858,7 @@
       <c r="G449" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R449" s="20">
+      <c r="R449" s="19">
         <v>4.7</v>
       </c>
     </row>
@@ -59890,7 +59884,7 @@
       <c r="G450" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R450" s="20">
+      <c r="R450" s="19">
         <v>4.7</v>
       </c>
     </row>
@@ -59916,7 +59910,7 @@
       <c r="G451" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R451" s="20">
+      <c r="R451" s="19">
         <v>4.7</v>
       </c>
     </row>
@@ -59942,7 +59936,7 @@
       <c r="G452" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R452" s="20">
+      <c r="R452" s="19">
         <v>4.7</v>
       </c>
     </row>
@@ -59968,7 +59962,7 @@
       <c r="G453" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R453" s="20">
+      <c r="R453" s="19">
         <v>4.71</v>
       </c>
     </row>
@@ -59994,7 +59988,7 @@
       <c r="G454" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R454" s="20">
+      <c r="R454" s="19">
         <v>4.75</v>
       </c>
     </row>
@@ -60020,7 +60014,7 @@
       <c r="G455" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R455" s="20">
+      <c r="R455" s="19">
         <v>4.75</v>
       </c>
     </row>
@@ -60046,7 +60040,7 @@
       <c r="G456" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R456" s="20">
+      <c r="R456" s="19">
         <v>4.75</v>
       </c>
     </row>
@@ -60072,7 +60066,7 @@
       <c r="G457" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R457" s="20">
+      <c r="R457" s="19">
         <v>4.75</v>
       </c>
     </row>
@@ -60098,7 +60092,7 @@
       <c r="G458" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R458" s="20">
+      <c r="R458" s="19">
         <v>4.75</v>
       </c>
     </row>
@@ -60124,7 +60118,7 @@
       <c r="G459" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R459" s="20">
+      <c r="R459" s="19">
         <v>4.75</v>
       </c>
     </row>
@@ -60150,7 +60144,7 @@
       <c r="G460" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R460" s="20">
+      <c r="R460" s="19">
         <v>4.95</v>
       </c>
     </row>
@@ -60176,7 +60170,7 @@
       <c r="G461" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R461" s="20">
+      <c r="R461" s="19">
         <v>4.95</v>
       </c>
     </row>
@@ -60202,7 +60196,7 @@
       <c r="G462" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R462" s="20">
+      <c r="R462" s="19">
         <v>4.95</v>
       </c>
     </row>
@@ -60228,7 +60222,7 @@
       <c r="G463" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R463" s="20">
+      <c r="R463" s="19">
         <v>4.95</v>
       </c>
     </row>
@@ -60254,7 +60248,7 @@
       <c r="G464" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R464" s="20">
+      <c r="R464" s="19">
         <v>4.95</v>
       </c>
     </row>
@@ -60280,7 +60274,7 @@
       <c r="G465" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R465" s="20">
+      <c r="R465" s="19">
         <v>4.95</v>
       </c>
     </row>
@@ -60306,7 +60300,7 @@
       <c r="G466" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R466" s="20">
+      <c r="R466" s="19">
         <v>5</v>
       </c>
     </row>
@@ -60332,7 +60326,7 @@
       <c r="G467" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R467" s="20">
+      <c r="R467" s="19">
         <v>5</v>
       </c>
     </row>
@@ -60358,7 +60352,7 @@
       <c r="G468" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R468" s="20">
+      <c r="R468" s="19">
         <v>5</v>
       </c>
     </row>
@@ -60384,7 +60378,7 @@
       <c r="G469" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R469" s="20">
+      <c r="R469" s="19">
         <v>5.1840000000000002</v>
       </c>
     </row>
@@ -60410,7 +60404,7 @@
       <c r="G470" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R470" s="20">
+      <c r="R470" s="19">
         <v>5.2</v>
       </c>
     </row>
@@ -60436,7 +60430,7 @@
       <c r="G471" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R471" s="20">
+      <c r="R471" s="19">
         <v>5.2</v>
       </c>
     </row>
@@ -60462,7 +60456,7 @@
       <c r="G472" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R472" s="20">
+      <c r="R472" s="19">
         <v>5.25</v>
       </c>
     </row>
@@ -60488,7 +60482,7 @@
       <c r="G473" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R473" s="20">
+      <c r="R473" s="19">
         <v>5.25</v>
       </c>
     </row>
@@ -60514,7 +60508,7 @@
       <c r="G474" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R474" s="20">
+      <c r="R474" s="19">
         <v>5.25</v>
       </c>
     </row>
@@ -60540,7 +60534,7 @@
       <c r="G475" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R475" s="20">
+      <c r="R475" s="19">
         <v>5.25</v>
       </c>
     </row>
@@ -60566,7 +60560,7 @@
       <c r="G476" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R476" s="20">
+      <c r="R476" s="19">
         <v>5.45</v>
       </c>
     </row>
@@ -60592,7 +60586,7 @@
       <c r="G477" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R477" s="20">
+      <c r="R477" s="19">
         <v>5.45</v>
       </c>
     </row>
@@ -60618,7 +60612,7 @@
       <c r="G478" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R478" s="20">
+      <c r="R478" s="19">
         <v>5.5</v>
       </c>
     </row>
@@ -60644,7 +60638,7 @@
       <c r="G479" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R479" s="20">
+      <c r="R479" s="19">
         <v>5.5</v>
       </c>
     </row>
@@ -60670,7 +60664,7 @@
       <c r="G480" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R480" s="20">
+      <c r="R480" s="19">
         <v>5.67</v>
       </c>
     </row>
@@ -60696,7 +60690,7 @@
       <c r="G481" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R481" s="20">
+      <c r="R481" s="19">
         <v>5.7</v>
       </c>
     </row>
@@ -60722,7 +60716,7 @@
       <c r="G482" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R482" s="20">
+      <c r="R482" s="19">
         <v>5.7</v>
       </c>
     </row>
@@ -60748,7 +60742,7 @@
       <c r="G483" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R483" s="20">
+      <c r="R483" s="19">
         <v>5.75</v>
       </c>
     </row>
@@ -60774,7 +60768,7 @@
       <c r="G484" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R484" s="20">
+      <c r="R484" s="19">
         <v>5.75</v>
       </c>
     </row>
@@ -60800,7 +60794,7 @@
       <c r="G485" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R485" s="20">
+      <c r="R485" s="19">
         <v>5.75</v>
       </c>
     </row>
@@ -60826,7 +60820,7 @@
       <c r="G486" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R486" s="20">
+      <c r="R486" s="19">
         <v>5.75</v>
       </c>
     </row>
@@ -60852,7 +60846,7 @@
       <c r="G487" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R487" s="20">
+      <c r="R487" s="19">
         <v>5.75</v>
       </c>
     </row>
@@ -60878,7 +60872,7 @@
       <c r="G488" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R488" s="20">
+      <c r="R488" s="19">
         <v>5.85</v>
       </c>
     </row>
@@ -60904,7 +60898,7 @@
       <c r="G489" s="3">
         <v>2.4619</v>
       </c>
-      <c r="R489" s="20">
+      <c r="R489" s="19">
         <v>5.95</v>
       </c>
     </row>
@@ -60930,7 +60924,7 @@
       <c r="G490" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R490" s="20">
+      <c r="R490" s="19">
         <v>6.25</v>
       </c>
     </row>
@@ -60956,7 +60950,7 @@
       <c r="G491" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R491" s="20">
+      <c r="R491" s="19">
         <v>6.25</v>
       </c>
     </row>
@@ -60982,7 +60976,7 @@
       <c r="G492" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R492" s="20">
+      <c r="R492" s="19">
         <v>6.33</v>
       </c>
     </row>
@@ -61008,7 +61002,7 @@
       <c r="G493" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R493" s="20">
+      <c r="R493" s="19">
         <v>6.45</v>
       </c>
     </row>
@@ -61034,7 +61028,7 @@
       <c r="G494" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R494" s="20">
+      <c r="R494" s="19">
         <v>6.7</v>
       </c>
     </row>
@@ -61060,7 +61054,7 @@
       <c r="G495" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R495" s="20">
+      <c r="R495" s="19">
         <v>6.75</v>
       </c>
     </row>
@@ -61086,7 +61080,7 @@
       <c r="G496" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R496" s="20">
+      <c r="R496" s="19">
         <v>7.9</v>
       </c>
     </row>
@@ -61112,7 +61106,7 @@
       <c r="G497" s="3">
         <v>1.8012000000000001</v>
       </c>
-      <c r="R497" s="20">
+      <c r="R497" s="19">
         <v>8</v>
       </c>
     </row>
@@ -61138,7 +61132,7 @@
       <c r="G498" s="3">
         <v>1.6867999999999999</v>
       </c>
-      <c r="R498" s="20">
+      <c r="R498" s="19">
         <v>77.45</v>
       </c>
     </row>
@@ -61156,8 +61150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3E6674-61B1-8E43-9C40-1137081056F5}">
   <dimension ref="A1:L485"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE25" sqref="AE25"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -61297,7 +61291,7 @@
       <c r="E13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -61889,18 +61883,18 @@
       <c r="B52" s="14">
         <v>111478.60152000003</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>41</v>
+      <c r="F52" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>17</v>
+      <c r="I52" s="26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -65497,15 +65491,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100335C4A8563A5694EB5B8043B95308766" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fb3fdebd82f14624c8194688692690f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="81c8c82f-a8f6-4036-a88e-edcb8d2f1c1b" xmlns:ns4="7e8b649a-791b-4e8c-b859-c293e85cc3ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c6a49f1084c1511064df17908317c131" ns3:_="" ns4:_="">
     <xsd:import namespace="81c8c82f-a8f6-4036-a88e-edcb8d2f1c1b"/>
@@ -65722,6 +65707,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -65729,14 +65723,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F19E96D-07F4-4695-9F32-7E6901B773A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535864A1-19AD-4B7C-ACF1-2BBA9520145D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -65751,6 +65737,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F19E96D-07F4-4695-9F32-7E6901B773A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
